--- a/Not OOP/MOptim/Расчёты.xlsx
+++ b/Not OOP/MOptim/Расчёты.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8805"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8805" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Золотое  сечение" sheetId="2" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -404,7 +404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -1045,7 +1045,7 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="E2:T2" si="0">E2+D2</f>
+        <f t="shared" ref="F2:T2" si="0">E2+D2</f>
         <v>5</v>
       </c>
       <c r="G2">
@@ -1287,7 +1287,7 @@
         <v>-10.728248606153564</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" ref="G9:G22" ca="1" si="7">IF(E11="&lt;=",G10,B11)</f>
+        <f t="shared" ref="G11:G22" ca="1" si="7">IF(E11="&lt;=",G10,B11)</f>
         <v>3.056</v>
       </c>
       <c r="H11" s="2">
@@ -1694,7 +1694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
